--- a/Typocrypha/Assets/spellDictionary.xlsx
+++ b/Typocrypha/Assets/spellDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>name (root)</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>aimed</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>a basic long cool atk</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,37 +483,52 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -515,10 +536,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -526,48 +547,59 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>-5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Typocrypha/Assets/spellDictionary.xlsx
+++ b/Typocrypha/Assets/spellDictionary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>name (root)</t>
   </si>
@@ -97,12 +97,27 @@
   </si>
   <si>
     <t>a basic long cool atk</t>
+  </si>
+  <si>
+    <t>falchion</t>
+  </si>
+  <si>
+    <t>a basic super long atk</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>poke</t>
+  </si>
+  <si>
+    <t>high damage for debugging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,23 +428,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -481,7 +496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -507,99 +522,151 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>999</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>-5</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Typocrypha/Assets/spellDictionary.xlsx
+++ b/Typocrypha/Assets/spellDictionary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>ice</t>
   </si>
   <si>
-    <t>lightning</t>
-  </si>
-  <si>
     <t>aimed</t>
   </si>
   <si>
@@ -112,12 +109,15 @@
   </si>
   <si>
     <t>high damage for debugging</t>
+  </si>
+  <si>
+    <t>bolt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,23 +428,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -496,15 +496,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -522,15 +522,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -545,18 +545,18 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>999</v>
@@ -574,12 +574,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -590,7 +590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -612,23 +612,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -648,9 +648,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>-5</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
